--- a/ontology/Properties.xlsx
+++ b/ontology/Properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="214">
   <si>
     <t>Properties</t>
   </si>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定派生的主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定注释资源所表示的主体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,14 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hasPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部件指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,54 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hasRepresentation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示形式指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定资源的影像表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>derive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>derive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定派生的客体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasAnnotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasAnnotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定资源的注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wasPresentAt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -867,6 +807,58 @@
   </si>
   <si>
     <t>Relic VisualDocumentation Event</t>
+  </si>
+  <si>
+    <t>isA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualDocumentationItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualDocumentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定文物影像文件的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定文物影像文件的源文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定文物属于哪个文物套件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定文物影像聚合相关联的文物影像实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualDocumentationAggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualDocumentation VisualDocumentationAggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1196,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A65"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1199,8 @@
     <col min="1" max="1" width="33.25" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="22.08203125" customWidth="1"/>
     <col min="7" max="7" width="23.58203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -1261,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1288,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1303,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I65" si="0">J3&amp;":"&amp;E3</f>
+        <f t="shared" ref="I3:I63" si="0">J3&amp;":"&amp;E3</f>
         <v>Relic:language</v>
       </c>
       <c r="J3" t="s">
@@ -1315,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1342,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1369,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1393,13 +1386,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -1435,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1459,22 +1452,22 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1486,22 +1479,22 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -1534,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1556,7 +1549,7 @@
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1564,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1588,22 +1581,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -1615,19 +1608,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1642,19 +1635,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -1669,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1678,7 +1671,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
         <v>47</v>
@@ -1693,22 +1686,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
         <v>155</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" t="s">
-        <v>158</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -1720,22 +1713,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -1747,7 +1740,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -1756,13 +1749,13 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -1774,22 +1767,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -1801,22 +1794,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -1828,22 +1821,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -1855,22 +1848,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -1882,7 +1875,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -1891,13 +1884,13 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1902,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -1918,13 +1911,13 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -1936,7 +1929,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -1945,13 +1938,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -1963,16 +1956,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
         <v>74</v>
       </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -1984,7 +1977,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1993,13 +1986,13 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
         <v>76</v>
       </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -2011,22 +2004,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>79</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -2038,19 +2031,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" t="s">
-        <v>82</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -2062,7 +2055,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
@@ -2071,10 +2064,10 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -2086,7 +2079,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
@@ -2095,10 +2088,10 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -2110,7 +2103,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -2119,10 +2112,10 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -2134,10 +2127,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -2149,7 +2142,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -2158,10 +2151,10 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -2173,7 +2166,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
@@ -2182,10 +2175,10 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -2197,19 +2190,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -2221,7 +2214,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -2230,10 +2223,10 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -2245,13 +2238,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -2263,19 +2256,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -2287,7 +2280,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -2296,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -2311,7 +2304,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -2320,10 +2313,10 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -2335,13 +2328,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +2346,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -2362,10 +2355,10 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -2377,7 +2370,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -2386,10 +2379,10 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
@@ -2401,19 +2394,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
@@ -2455,19 +2448,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -2509,26 +2502,29 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>206</v>
+      </c>
+      <c r="H52" t="s">
+        <v>59</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:hasRepresentation</v>
+        <v>Relic:isDerivativeOf</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
@@ -2536,59 +2532,46 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:isDerivativeOf</v>
-      </c>
-      <c r="J53" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:derive</v>
+        <v>Relic:isAnnotationOf</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
@@ -2596,29 +2579,26 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:isAnnotationOf</v>
+        <v>Relic:hasType</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
@@ -2626,26 +2606,23 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:hasAnnotation</v>
+        <v>Relic:creator</v>
       </c>
       <c r="J56" t="s">
         <v>43</v>
@@ -2653,16 +2630,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
         <v>207</v>
@@ -2672,7 +2649,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:hasType</v>
+        <v>Relic:isPartOf</v>
       </c>
       <c r="J57" t="s">
         <v>43</v>
@@ -2680,23 +2657,20 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:creator</v>
+        <v>Relic:isMetadataOf</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
@@ -2704,44 +2678,40 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:isPartOf</v>
-      </c>
-      <c r="J59" t="s">
-        <v>43</v>
+        <v>202</v>
+      </c>
+      <c r="F59" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:hasPart</v>
+        <v>Relic:name</v>
       </c>
       <c r="J60" t="s">
         <v>43</v>
@@ -2749,20 +2719,23 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>170</v>
+      </c>
+      <c r="F61" t="s">
+        <v>172</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:isMetadataOf</v>
+        <v>Relic:phone</v>
       </c>
       <c r="J61" t="s">
         <v>43</v>
@@ -2770,23 +2743,23 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:name</v>
+        <v>Relic:address</v>
       </c>
       <c r="J62" t="s">
         <v>43</v>
@@ -2794,73 +2767,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>Relic:phone</v>
+        <v>Relic:agentID</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" t="s">
-        <v>179</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:address</v>
-      </c>
-      <c r="J64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" t="s">
-        <v>182</v>
-      </c>
-      <c r="F65" t="s">
-        <v>183</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:agentID</v>
-      </c>
-      <c r="J65" t="s">
         <v>43</v>
       </c>
     </row>

--- a/ontology/Properties.xlsx
+++ b/ontology/Properties.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6410"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$63</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -616,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Relic Grahpics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,6 +857,10 @@
   </si>
   <si>
     <t>VisualDocumentation VisualDocumentationAggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relic:FileFormat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,8 +907,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1281,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1308,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1335,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1362,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1389,7 +1395,7 @@
         <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>92</v>
@@ -1428,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1452,22 +1458,22 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>188</v>
-      </c>
-      <c r="G10" t="s">
-        <v>189</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1482,7 +1488,7 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1494,7 +1500,7 @@
         <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -1527,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1549,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1557,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1584,7 +1590,7 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1611,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
+        <v>196</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="E16" t="s">
         <v>111</v>
@@ -1638,7 +1644,7 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1662,7 +1668,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1686,22 +1692,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
         <v>152</v>
       </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -1755,7 +1761,7 @@
         <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -1782,7 +1788,7 @@
         <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1815,7 @@
         <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -1824,7 +1830,7 @@
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1836,7 +1842,7 @@
         <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -1863,7 +1869,7 @@
         <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -1890,7 +1896,7 @@
         <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -1917,7 +1923,7 @@
         <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -1944,7 +1950,7 @@
         <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -1965,7 +1971,7 @@
         <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -1992,7 +1998,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -2397,7 +2403,7 @@
         <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
       </c>
       <c r="E50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" t="s">
         <v>183</v>
-      </c>
-      <c r="F50" t="s">
-        <v>184</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -2475,7 +2481,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -2505,10 +2511,10 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" t="s">
         <v>57</v>
@@ -2517,7 +2523,7 @@
         <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
         <v>201</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>202</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>203</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>204</v>
-      </c>
-      <c r="G53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2579,7 +2585,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
@@ -2588,13 +2594,13 @@
         <v>67</v>
       </c>
       <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
         <v>191</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>192</v>
-      </c>
-      <c r="G55" t="s">
-        <v>193</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
@@ -2609,7 +2615,7 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
@@ -2642,10 +2648,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" t="s">
         <v>207</v>
-      </c>
-      <c r="G57" t="s">
-        <v>208</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
@@ -2657,16 +2663,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
         <v>181</v>
       </c>
-      <c r="C58" t="s">
-        <v>182</v>
-      </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
@@ -2678,24 +2684,24 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" t="s">
         <v>209</v>
       </c>
-      <c r="C59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>210</v>
-      </c>
-      <c r="G59" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
@@ -2704,10 +2710,10 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="s">
         <v>168</v>
-      </c>
-      <c r="F60" t="s">
-        <v>169</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
         <v>170</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
         <v>171</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" t="s">
-        <v>172</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
         <v>173</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>174</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" t="s">
         <v>175</v>
-      </c>
-      <c r="E62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" t="s">
-        <v>176</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
@@ -2767,20 +2773,20 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
         <v>177</v>
-      </c>
-      <c r="C63" t="s">
-        <v>178</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
       <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
         <v>179</v>
       </c>
-      <c r="F63" t="s">
-        <v>180</v>
-      </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
         <v>Relic:agentID</v>
@@ -2790,6 +2796,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N63"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ontology/Properties.xlsx
+++ b/ontology/Properties.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="260">
   <si>
     <t>Properties</t>
   </si>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isDerivativeOf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>派生主体指定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>agentID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代理人标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,9 +797,6 @@
     <t>Relic VisualDocumentation</t>
   </si>
   <si>
-    <t>Relic VisualDocumentation Event</t>
-  </si>
-  <si>
     <t>isA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,6 +850,197 @@
   </si>
   <si>
     <t>Relic:FileFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalImage</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄方案描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如方位：东，顺序：顺时针，由上至下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightModeDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmentDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspectData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softwareUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftwareType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackAndWhitePointCloud ColorPointCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCloudType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointCloudType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DModel MaterialModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relic VisualDocumentation Annotation Event BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
+  </si>
+  <si>
+    <t>OriginalImage BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
+  </si>
+  <si>
+    <t>Relic VisualDocumentation Event OriginalImage 3DModel MaterialModel</t>
+  </si>
+  <si>
+    <t>BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
+  </si>
+  <si>
+    <t>isDerivativeFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relic VisualDocumentation VisualDocumentationItem DocumentationAggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,12 +1065,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -907,11 +1093,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,17 +1383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.25" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="32.58203125" customWidth="1"/>
     <col min="4" max="4" width="22.58203125" customWidth="1"/>
     <col min="5" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="22.08203125" customWidth="1"/>
@@ -1255,12 +1445,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1282,12 +1472,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1309,12 +1499,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1336,12 +1526,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1363,12 +1553,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1390,15 +1580,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -1408,10 +1598,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1429,12 +1622,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1456,25 +1649,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>186</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" t="s">
-        <v>188</v>
-      </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>Relic:timeSpan</v>
@@ -1483,24 +1676,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" t="s">
-        <v>117</v>
-      </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -1528,12 +1721,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1555,15 +1748,15 @@
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1585,24 +1778,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -1612,21 +1805,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
         <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1639,22 +1832,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>110</v>
-      </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>Relic:equipment</v>
@@ -1663,12 +1856,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1677,7 +1870,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
         <v>47</v>
@@ -1690,63 +1883,63 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
         <v>151</v>
       </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" t="s">
-        <v>152</v>
-      </c>
       <c r="G19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:link</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
         <v>154</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:link</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:eventID</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:eventID</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -1755,94 +1948,94 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:eventType</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>98</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:role</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
         <v>156</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:eventType</v>
-      </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:role</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:eventName</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C24" t="s">
         <v>157</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:eventName</v>
-      </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>158</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -1854,22 +2047,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>118</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -1881,22 +2074,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
         <v>121</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" t="s">
-        <v>122</v>
-      </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -1908,22 +2101,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
         <v>123</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -1935,7 +2128,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -1944,13 +2137,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
         <v>125</v>
       </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -1962,16 +2155,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
         <v>73</v>
       </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -1983,7 +2176,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1992,13 +2185,13 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -2010,22 +2203,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>78</v>
-      </c>
-      <c r="G31" t="s">
-        <v>79</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -2037,19 +2230,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -2061,19 +2254,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -2085,19 +2278,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -2109,19 +2302,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" t="s">
-        <v>132</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -2133,10 +2326,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -2148,7 +2341,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -2157,10 +2350,10 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -2172,7 +2365,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
@@ -2181,10 +2374,10 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -2196,19 +2389,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
         <v>137</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" t="s">
-        <v>138</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -2220,19 +2413,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" t="s">
-        <v>140</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -2244,13 +2437,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -2262,19 +2455,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
         <v>142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" t="s">
-        <v>143</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -2286,19 +2479,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" t="s">
         <v>144</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -2310,19 +2503,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" t="s">
         <v>147</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" t="s">
-        <v>148</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -2334,13 +2527,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
         <v>84</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -2352,19 +2545,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
         <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" t="s">
-        <v>87</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -2376,7 +2569,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -2385,11 +2578,11 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
         <v>88</v>
       </c>
-      <c r="F47" t="s">
-        <v>89</v>
-      </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
         <v>Relic:conservation</v>
@@ -2398,22 +2591,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" t="s">
         <v>149</v>
       </c>
-      <c r="C48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
-      </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
         <v>Relic:viewType</v>
@@ -2422,7 +2615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2442,7 +2635,7 @@
         <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
@@ -2452,21 +2645,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
         <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>184</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -2476,12 +2669,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -2493,10 +2686,10 @@
         <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
@@ -2506,74 +2699,79 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" t="str">
+        <f>A52</f>
+        <v>isDerivativeFrom</v>
+      </c>
+      <c r="F52" t="s">
         <v>57</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:isDerivativeFrom</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" t="str">
+        <f>A53</f>
+        <v>isA</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" t="s">
         <v>201</v>
       </c>
-      <c r="D52" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s">
-        <v>205</v>
-      </c>
-      <c r="H52" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:isDerivativeOf</v>
-      </c>
-      <c r="J52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
         <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" t="s">
         <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>65</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
@@ -2585,23 +2783,23 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" t="s">
         <v>190</v>
       </c>
-      <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>192</v>
-      </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
         <v>Relic:hasType</v>
@@ -2610,21 +2808,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
         <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" t="s">
-        <v>72</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
@@ -2636,156 +2834,160 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" t="s">
+        <v>204</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:isPartOf</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:isMetadataOf</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" t="s">
         <v>206</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G59" t="s">
         <v>207</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:isPartOf</v>
-      </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:isMetadataOf</v>
-      </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" t="s">
-        <v>201</v>
-      </c>
-      <c r="F59" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
         <v>167</v>
       </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:name</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:name</v>
-      </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>169</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" t="s">
         <v>170</v>
       </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:phone</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>171</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:phone</v>
-      </c>
-      <c r="J61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C62" t="s">
         <v>172</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>173</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
         <v>174</v>
       </c>
-      <c r="E62" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>Relic:address</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>175</v>
       </c>
-      <c r="I62" t="str">
-        <f t="shared" si="0"/>
-        <v>Relic:address</v>
-      </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
         <v>176</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
-      <c r="E63" t="s">
-        <v>178</v>
+      <c r="E63" t="str">
+        <f>A63</f>
+        <v>agentID</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
@@ -2795,8 +2997,251 @@
         <v>43</v>
       </c>
     </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" ref="E64:E76" si="1">A64</f>
+        <v>shootingDescription</v>
+      </c>
+      <c r="F64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>shootingContent</v>
+      </c>
+      <c r="F65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>photographer</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>inspector</v>
+      </c>
+      <c r="F67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>lightModeDescription</v>
+      </c>
+      <c r="F68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>shootingEquipment</v>
+      </c>
+      <c r="F69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>environmentDescription</v>
+      </c>
+      <c r="F70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>shootingData</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>inspectData</v>
+      </c>
+      <c r="F72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>softwareUse</v>
+      </c>
+      <c r="F73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>pointCloudType</v>
+      </c>
+      <c r="F74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>modelType</v>
+      </c>
+      <c r="F75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>applicationType</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N63"/>
+  <autoFilter ref="A1:N76">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Relic"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ontology/Properties.xlsx
+++ b/ontology/Properties.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="267">
   <si>
     <t>Properties</t>
   </si>
@@ -853,10 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shootingDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OriginalImage</t>
   </si>
   <si>
@@ -872,10 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shootingContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拍摄部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,26 +884,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lightModeDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灯光说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shootingEquipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相机型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环境说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shootingData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拍摄日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,19 +996,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>applicationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ApplicationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precisionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrecisionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,1865 +1411,1858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.25" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.58203125" customWidth="1"/>
-    <col min="4" max="4" width="22.58203125" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="22.08203125" customWidth="1"/>
-    <col min="7" max="7" width="23.58203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="20.08203125" customWidth="1"/>
+    <col min="1" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.58203125" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="22.08203125" customWidth="1"/>
+    <col min="8" max="8" width="23.58203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="20.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="str">
-        <f>J2&amp;":"&amp;E2</f>
+      <c r="J2" t="str">
+        <f>K2&amp;":"&amp;F2</f>
         <v>Relic:currentLocation</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>191</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I63" si="0">J3&amp;":"&amp;E3</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J63" si="0">K3&amp;":"&amp;F3</f>
         <v>Relic:language</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>192</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>Relic:right</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>192</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>Relic:title</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>Relic:alternative</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>Relic:description</v>
       </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>Relic:date</v>
       </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>Relic:creadted</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>183</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>183</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>185</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>186</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>Relic:timeSpan</v>
       </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>194</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>115</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>152</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Relic:type </v>
       </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>Relic:format</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>194</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>Relic:extent</v>
       </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>194</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>Relic:medium</v>
       </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>194</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>107</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>112</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>Relic:size</v>
       </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>Relic:fileFormat</v>
       </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>195</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
       <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>Relic:equipment</v>
       </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>196</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
       <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>Relic:identifier</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>195</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
         <v>150</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>153</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>Relic:link</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>154</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>Relic:eventID</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>97</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>155</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>Relic:eventType</v>
       </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>99</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>100</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>Relic:role</v>
       </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>156</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>Relic:eventName</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>157</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
       <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>104</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>105</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>158</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="0"/>
         <v>Relic:place</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>119</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>160</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>Relic:creationPlace</v>
       </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>161</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>Relic:materialCategory</v>
       </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>162</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>Relic:techniques</v>
       </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>124</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>125</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>Relic:styles</v>
       </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>72</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>164</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>Relic:measurements</v>
       </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>165</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>Relic:dimesions</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
       <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
         <v>76</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>77</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>78</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>Relic:dimensionsExtent</v>
       </c>
-      <c r="J31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
       <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>79</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>Relic:quantity</v>
       </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>127</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>Relic:inscriptionsAuthor</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
         <v>128</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>129</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>Relic:inscriptionsLocation</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>130</v>
       </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>130</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>Relic:inscriptionsLetterform</v>
       </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" t="s">
         <v>132</v>
       </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="0"/>
         <v>Relic:context</v>
       </c>
-      <c r="J36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
         <v>114</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>133</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="0"/>
         <v>Relic:spatial</v>
       </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
         <v>113</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>134</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="0"/>
         <v>Relic:temporal</v>
       </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="K38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
       <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>137</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="0"/>
         <v>Relic:humanity</v>
       </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>139</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="0"/>
         <v>Relic:level</v>
       </c>
-      <c r="J40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>145</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="0"/>
         <v>Relic:source</v>
       </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="K41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>90</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>70</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>141</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>142</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="0"/>
         <v>Relic:owner</v>
       </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="K42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>144</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="0"/>
         <v>Relic:transferMode</v>
       </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>65</v>
       </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
       <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
         <v>146</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>147</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="0"/>
         <v>Relic:registeredDate</v>
       </c>
-      <c r="J44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>83</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>84</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="0"/>
         <v>Relic:currentCondition</v>
       </c>
-      <c r="J45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
       <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>86</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="0"/>
         <v>Relic:completeness</v>
       </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
       <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>88</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="0"/>
         <v>Relic:conservation</v>
       </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>148</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>195</v>
       </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
       <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
         <v>148</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>149</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="0"/>
         <v>Relic:viewType</v>
       </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>52</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>50</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>53</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>54</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>60</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isEventOf</v>
       </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>180</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>182</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>51</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>180</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>181</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="0"/>
         <v>Relic:wasPresentAt</v>
       </c>
-      <c r="J50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>209</v>
       </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
       <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
         <v>55</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>56</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>67</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>59</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isRepresentationOf</v>
       </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
         <v>198</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" t="str">
         <f>A52</f>
         <v>isDerivativeFrom</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>57</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>202</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>58</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isDerivativeFrom</v>
       </c>
-      <c r="J52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>198</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>199</v>
       </c>
-      <c r="E53" t="str">
+      <c r="F53" t="str">
         <f>A53</f>
         <v>isA</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>200</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>62</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>61</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>63</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>68</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>64</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isAnnotationOf</v>
       </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>188</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>65</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>189</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>190</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="0"/>
         <v>Relic:hasType</v>
       </c>
-      <c r="J55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="C56" t="s">
-        <v>252</v>
-      </c>
       <c r="D56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" t="s">
         <v>70</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>69</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>71</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="0"/>
         <v>Relic:creator</v>
       </c>
-      <c r="J56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
       <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
         <v>89</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>203</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>204</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isPartOf</v>
       </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>178</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>179</v>
       </c>
-      <c r="D58" t="s">
-        <v>255</v>
-      </c>
       <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" t="s">
         <v>178</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="0"/>
         <v>Relic:isMetadataOf</v>
       </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>205</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>208</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>198</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>205</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>206</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>70</v>
       </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
       <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
         <v>166</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>167</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>Relic:name</v>
       </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>169</v>
       </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
       <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
         <v>168</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>170</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>Relic:phone</v>
       </c>
-      <c r="J61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>171</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>172</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>173</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>171</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>174</v>
       </c>
-      <c r="I62" t="str">
+      <c r="J62" t="str">
         <f t="shared" si="0"/>
         <v>Relic:address</v>
       </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>175</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>176</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>22</v>
       </c>
-      <c r="E63" t="str">
+      <c r="F63" t="str">
         <f>A63</f>
         <v>agentID</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>177</v>
       </c>
-      <c r="I63" t="str">
+      <c r="J63" t="str">
         <f t="shared" si="0"/>
         <v>Relic:agentID</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" ref="F64:F76" si="1">A64</f>
+        <v>photographDescription</v>
+      </c>
+      <c r="G64" t="s">
+        <v>213</v>
+      </c>
+      <c r="H64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" t="s">
         <v>211</v>
       </c>
-      <c r="C64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" ref="E64:E76" si="1">A64</f>
-        <v>shootingDescription</v>
-      </c>
-      <c r="F64" t="s">
-        <v>214</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E65" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>photographContent</v>
+      </c>
+      <c r="G65" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>shootingContent</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" t="str">
+      <c r="F66" t="str">
         <f t="shared" si="1"/>
         <v>photographer</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" t="str">
+        <v>233</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="1"/>
         <v>inspector</v>
       </c>
-      <c r="F67" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>lightDescription</v>
+      </c>
+      <c r="G68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>photographEquipment</v>
+      </c>
+      <c r="G69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>221</v>
       </c>
-      <c r="C68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>lightModeDescription</v>
-      </c>
-      <c r="F68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" t="s">
-        <v>225</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>shootingEquipment</v>
-      </c>
-      <c r="F69" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>227</v>
-      </c>
-      <c r="C70" t="s">
-        <v>212</v>
-      </c>
       <c r="D70" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" t="str">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" t="str">
         <f t="shared" si="1"/>
         <v>environmentDescription</v>
       </c>
-      <c r="F70" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>shootingData</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>photographate</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" t="s">
         <v>212</v>
       </c>
-      <c r="D72" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="1"/>
         <v>inspectData</v>
       </c>
-      <c r="F72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" t="str">
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v>softwareUse</v>
       </c>
-      <c r="F73" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="str">
+        <v>234</v>
+      </c>
+      <c r="E74" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>pointCloudType</v>
       </c>
-      <c r="F74" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
-      </c>
-      <c r="E75" t="str">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" t="str">
         <f t="shared" si="1"/>
         <v>modelType</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>precisionType</v>
+      </c>
+      <c r="G76" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>applicationType</v>
-      </c>
-      <c r="F76" t="s">
-        <v>257</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N76">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Relic"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O76"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ontology/Properties.xlsx
+++ b/ontology/Properties.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="263">
   <si>
     <t>Properties</t>
   </si>
@@ -853,9 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OriginalImage</t>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OriginalImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>softwareUse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,14 +933,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OriginalImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackAndWhitePointCloud ColorPointCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pointCloudType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,22 +957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3DModel MaterialModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relic VisualDocumentation Annotation Event BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
-  </si>
-  <si>
-    <t>OriginalImage BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
-  </si>
-  <si>
-    <t>Relic VisualDocumentation Event OriginalImage 3DModel MaterialModel</t>
-  </si>
-  <si>
-    <t>BlackAndWhitePointCloud ColorPointCloud 3DModel MaterialModel</t>
-  </si>
-  <si>
     <t>isDerivativeFrom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,13 +1039,28 @@
   <si>
     <t>EnvironmentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relic VisualDocumentation Event   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relic VisualDocumentation Annotation Event    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1071,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1121,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,6 +1121,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1608,7 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>91</v>
@@ -1630,7 +1626,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -1651,7 +1647,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
         <v>193</v>
@@ -1704,7 +1700,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D11" t="s">
@@ -1834,7 +1830,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
         <v>194</v>
@@ -2074,7 +2070,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
@@ -2101,7 +2097,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -2203,7 +2199,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2353,7 +2349,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
         <v>132</v>
@@ -2446,7 +2442,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>138</v>
@@ -2506,7 +2502,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -2618,27 +2614,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Relic:viewType</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2728,7 +2724,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
         <v>198</v>
@@ -2840,7 +2836,7 @@
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
         <v>70</v>
@@ -2894,7 +2890,7 @@
         <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
         <v>178</v>
@@ -3026,239 +3022,212 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" ref="F64:F76" si="1">A64</f>
         <v>photographDescription</v>
       </c>
       <c r="G64" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" t="s">
         <v>213</v>
-      </c>
-      <c r="H64" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>259</v>
-      </c>
-      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" t="s">
         <v>211</v>
-      </c>
-      <c r="E65" t="s">
-        <v>212</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
         <v>photographContent</v>
       </c>
       <c r="G65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
         <v>photographer</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" t="s">
         <v>223</v>
-      </c>
-      <c r="D67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" t="s">
-        <v>224</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
         <v>inspector</v>
       </c>
       <c r="G67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
         <v>lightDescription</v>
       </c>
       <c r="G68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" t="str">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>photographEquipment</v>
       </c>
-      <c r="G69" t="s">
-        <v>220</v>
+      <c r="G69" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
         <v>environmentDescription</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
         <v>photographate</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>227</v>
-      </c>
-      <c r="D72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" t="s">
         <v>211</v>
-      </c>
-      <c r="E72" t="s">
-        <v>212</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
         <v>inspectData</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v>softwareUse</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>pointCloudType</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
         <v>modelType</v>
       </c>
       <c r="G75" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
         <v>198</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
         <v>precisionType</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
